--- a/databases/oportunidades/Oportunidad - Aprovechamiento de las bellezas naturales y arqueológicas departamentales.xlsx
+++ b/databases/oportunidades/Oportunidad - Aprovechamiento de las bellezas naturales y arqueológicas departamentales.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2f7fe4d737f2b4a/CEPLAN/CeplanPythonCode/excel_automation/databases/oportunidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{13EC865E-5594-4178-87C8-1934D25D85BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4D0CC93-2E2E-4D27-8C2F-CC09C2BFB544}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{05F1EA9A-C9E9-497C-A119-698D41198685}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9AE19DE-4BA3-431D-8C88-A2E4C0E009A7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{D73770B7-7AB5-4EF3-BC82-2C50722BF4EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{D73770B7-7AB5-4EF3-BC82-2C50722BF4EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="5" r:id="rId1"/>
     <sheet name="Fig1" sheetId="15" r:id="rId2"/>
     <sheet name="Tab1" sheetId="10" r:id="rId3"/>
     <sheet name="Lachay" sheetId="12" r:id="rId4"/>
-    <sheet name="Caral" sheetId="16" r:id="rId5"/>
-    <sheet name="Pucllana" sheetId="13" r:id="rId6"/>
-    <sheet name="MachuPicchu" sheetId="14" r:id="rId7"/>
+    <sheet name="Pucllana" sheetId="13" r:id="rId5"/>
+    <sheet name="Caral" sheetId="16" r:id="rId6"/>
+    <sheet name="Machupicchu" sheetId="14" r:id="rId7"/>
+    <sheet name="Pomac" sheetId="18" r:id="rId8"/>
+    <sheet name="Rajada" sheetId="19" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="\a">'[1]R. Natural'!#REF!</definedName>
@@ -45,7 +47,7 @@
     <definedName name="Test">#REF!</definedName>
     <definedName name="TITL">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,12 +55,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -66,117 +62,198 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Título</t>
+  </si>
+  <si>
+    <t>Fuente</t>
+  </si>
+  <si>
+    <t>Formato número</t>
+  </si>
+  <si>
+    <t>Referencia</t>
+  </si>
+  <si>
+    <t>Procedimiento</t>
+  </si>
+  <si>
+    <t>Tipo gráfico</t>
+  </si>
+  <si>
+    <t>Comentarios adicionales</t>
+  </si>
+  <si>
+    <t>Figura 1</t>
+  </si>
+  <si>
+    <t>Número de áreas naturales protegidas por departamento</t>
+  </si>
+  <si>
+    <t>https://www.statista.com/statistics/269329/penetration-rate-of-the-internet-by-region/</t>
+  </si>
+  <si>
+    <t>Unidades</t>
+  </si>
+  <si>
+    <t>Se mantiene</t>
+  </si>
+  <si>
+    <t>Barra horizontal</t>
+  </si>
+  <si>
+    <t>Figura 2</t>
+  </si>
+  <si>
+    <t>https://datosturismo.mincetur.gob.pe/appdatosturismo/Content2.html</t>
+  </si>
+  <si>
+    <t>Visitantes</t>
+  </si>
+  <si>
+    <t>Se busca otro lugar dentro del departamento</t>
+  </si>
+  <si>
+    <t>Línea (mensual)</t>
+  </si>
+  <si>
+    <t>Figura 3</t>
+  </si>
+  <si>
+    <t>Figura 4</t>
+  </si>
+  <si>
+    <t>Impactos positivos del aprovechamiento de las bellezas naturales y arqueológicas departamentales</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Tabla de texto</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t>Cantidad de Áreas Protegidas</t>
+  </si>
+  <si>
+    <t>Apurímac</t>
+  </si>
+  <si>
+    <t>Moquegua</t>
+  </si>
+  <si>
+    <t>Ayacucho</t>
+  </si>
+  <si>
+    <t>Mar de Grau</t>
+  </si>
+  <si>
+    <t>Ica</t>
+  </si>
+  <si>
+    <t>Tumbes</t>
+  </si>
+  <si>
+    <t>Puno</t>
+  </si>
+  <si>
+    <t>Áncash</t>
+  </si>
+  <si>
+    <t>La Libertad</t>
+  </si>
+  <si>
+    <t>San Martín</t>
+  </si>
+  <si>
+    <t>Piura</t>
+  </si>
+  <si>
+    <t>Huánuco</t>
+  </si>
+  <si>
+    <t>Arequipa</t>
+  </si>
+  <si>
+    <t>Lambayeque</t>
+  </si>
+  <si>
+    <t>Ucayali</t>
+  </si>
+  <si>
+    <t>Amazonas</t>
+  </si>
+  <si>
+    <t>Cajamarca</t>
+  </si>
+  <si>
+    <t>Pasco</t>
+  </si>
+  <si>
+    <t>Madre de Dios</t>
+  </si>
+  <si>
+    <t>Junín</t>
+  </si>
+  <si>
+    <t>Cuzco</t>
+  </si>
+  <si>
+    <t>Lima</t>
+  </si>
+  <si>
+    <t>Loreto</t>
+  </si>
+  <si>
+    <t>Impactos positivos</t>
+  </si>
+  <si>
+    <t>Impulso a la economía local y generación de empleo</t>
+  </si>
+  <si>
+    <t>El turismo impulsa la economía local mediante la creación de emprendimientos, generación de empleo y reducción de la migración a ciudades, fortaleciendo el tejido social.</t>
+  </si>
+  <si>
+    <t>Baja inversión inicial</t>
+  </si>
+  <si>
+    <t>La infraestructura básica ya existente en muchas zonas arqueológicas y naturales permite desarrollar el turismo con una inversión inicial baja.</t>
+  </si>
+  <si>
+    <t>Descentralización y distribución equitativa de beneficios</t>
+  </si>
+  <si>
+    <t>La diversificación de destinos turísticos reduce la presión sobre los sitios tradicionales y distribuye mejor los beneficios económicos a nivel regional.</t>
+  </si>
+  <si>
+    <t>Sostenibilidad y conservación del patrimonio</t>
+  </si>
+  <si>
+    <t>El turismo sostenible fomenta la protección de ecosistemas frágiles, la restauración de sitios arqueológicos y la educación ambiental; además, generan ingresos que se reinvierten en la conservación de estos ecosistemas.</t>
+  </si>
+  <si>
+    <t>Fortalecimiento de la imagen y competitividad internacional</t>
+  </si>
+  <si>
+    <t>La diversificación y promoción de destinos refuerza la imagen de Perú y de la región como destino culturalmente rico y sostenible, atrayendo inversión y visitantes.</t>
+  </si>
+  <si>
+    <t>Aprovechamiento del auge del ecoturismo</t>
+  </si>
+  <si>
+    <t>La tendencia hacia experiencias turísticas más naturales y participativas impulsa el desarrollo del ecoturismo y fortalece la identidad cultural.</t>
+  </si>
   <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Amazonas</t>
-  </si>
-  <si>
-    <t>Áncash</t>
-  </si>
-  <si>
-    <t>Apurímac</t>
-  </si>
-  <si>
-    <t>Arequipa</t>
-  </si>
-  <si>
-    <t>Ayacucho</t>
-  </si>
-  <si>
-    <t>Cajamarca</t>
-  </si>
-  <si>
-    <t>Huánuco</t>
-  </si>
-  <si>
-    <t>Ica</t>
-  </si>
-  <si>
-    <t>Junín</t>
-  </si>
-  <si>
-    <t>La Libertad</t>
-  </si>
-  <si>
-    <t>Lambayeque</t>
-  </si>
-  <si>
-    <t>Loreto</t>
-  </si>
-  <si>
-    <t>Madre de Dios</t>
-  </si>
-  <si>
-    <t>Moquegua</t>
-  </si>
-  <si>
-    <t>Pasco</t>
-  </si>
-  <si>
-    <t>Piura</t>
-  </si>
-  <si>
-    <t>Puno</t>
-  </si>
-  <si>
-    <t>San Martín</t>
-  </si>
-  <si>
-    <t>Tumbes</t>
-  </si>
-  <si>
-    <t>Ucayali</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Título</t>
-  </si>
-  <si>
-    <t>Fuente</t>
-  </si>
-  <si>
-    <t>Referencia</t>
-  </si>
-  <si>
-    <t>Procedimiento</t>
-  </si>
-  <si>
-    <t>Tipo gráfico</t>
-  </si>
-  <si>
-    <t>Comentarios adicionales</t>
-  </si>
-  <si>
-    <t>Figura 1</t>
-  </si>
-  <si>
-    <t>Se mantiene</t>
-  </si>
-  <si>
-    <t>Figura 2</t>
-  </si>
-  <si>
-    <t>https://www.statista.com/statistics/269329/penetration-rate-of-the-internet-by-region/</t>
-  </si>
-  <si>
-    <t>Figura 3</t>
-  </si>
-  <si>
-    <t>Barra horizontal</t>
-  </si>
-  <si>
-    <t>Figura 4</t>
-  </si>
-  <si>
-    <t>Impactos positivos</t>
-  </si>
-  <si>
-    <t>Descripción</t>
+    <t>Fecha</t>
   </si>
   <si>
     <t>Nacional</t>
@@ -185,91 +262,10 @@
     <t>Extranjero</t>
   </si>
   <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Departamento</t>
-  </si>
-  <si>
-    <t>Cantidad de Áreas Protegidas</t>
-  </si>
-  <si>
-    <t>Lima</t>
-  </si>
-  <si>
-    <t>Cuzco</t>
-  </si>
-  <si>
-    <t>Mar de Grau</t>
-  </si>
-  <si>
-    <t>El turismo impulsa la economía local mediante la creación de emprendimientos, generación de empleo y reducción de la migración a ciudades, fortaleciendo el tejido social.</t>
-  </si>
-  <si>
-    <t>La infraestructura básica ya existente en muchas zonas arqueológicas y naturales permite desarrollar el turismo con una inversión inicial baja.</t>
-  </si>
-  <si>
-    <t>La diversificación de destinos turísticos reduce la presión sobre los sitios tradicionales y distribuye mejor los beneficios económicos a nivel regional.</t>
-  </si>
-  <si>
-    <t>La tendencia hacia experiencias turísticas más naturales y participativas impulsa el desarrollo del ecoturismo y fortalece la identidad cultural.</t>
-  </si>
-  <si>
-    <t>Impulso a la economía local y generación de empleo</t>
-  </si>
-  <si>
-    <t>Fortalecimiento de la imagen y competitividad internacional</t>
-  </si>
-  <si>
-    <t>Aprovechamiento del auge del ecoturismo</t>
-  </si>
-  <si>
-    <t>La diversificación y promoción de destinos refuerza la imagen de Perú y de la región como destino culturalmente rico y sostenible, atrayendo inversión y visitantes.</t>
-  </si>
-  <si>
-    <t>Baja inversión inicial</t>
-  </si>
-  <si>
-    <t>Descentralización y distribución equitativa de beneficios</t>
-  </si>
-  <si>
-    <t>Sostenibilidad y conservación del patrimonio</t>
-  </si>
-  <si>
-    <t>El turismo sostenible fomenta la protección de ecosistemas frágiles, la restauración de sitios arqueológicos y la educación ambiental; además, generan ingresos que se reinvierten en la conservación de estos ecosistemas.</t>
-  </si>
-  <si>
-    <t>Número de áreas naturales protegidas por departamento</t>
-  </si>
-  <si>
-    <t>Formato número</t>
-  </si>
-  <si>
-    <t>$Departamento: número de visitantes mensuales a la Reserva Nacional de Lachay, 2022-2024</t>
-  </si>
-  <si>
-    <t>https://datosturismo.mincetur.gob.pe/appdatosturismo/Content2.html</t>
-  </si>
-  <si>
-    <t>Visitantes</t>
-  </si>
-  <si>
-    <t>Unidades</t>
-  </si>
-  <si>
-    <t>$Departamento: número de visitantes mensuales al museo de sitio Huaca Pucllana, 2022-2024.</t>
-  </si>
-  <si>
-    <t>Impactos positivos del aprovechamiento de las bellezas naturales y arqueológicas departamentales</t>
-  </si>
-  <si>
-    <t>Línea (mensual)</t>
-  </si>
-  <si>
-    <t>Se busca otro lugar dentro del departamento</t>
-  </si>
-  <si>
-    <t>Tabla de texto</t>
+    <t>$Departamento: número de visitantes mensuales $Otro, 2022-2024</t>
+  </si>
+  <si>
+    <t>$Departamento: número de visitantes mensuales $Otro, 2022-2024.</t>
   </si>
 </sst>
 </file>
@@ -280,7 +276,7 @@
     <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -369,12 +365,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -441,7 +431,7 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -493,15 +483,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -597,7 +593,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -843,7 +839,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="23825791"/>
@@ -902,7 +898,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="23828671"/>
@@ -943,7 +939,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1723,7 +1719,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1224167888"/>
@@ -1781,7 +1777,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1241630175"/>
@@ -1823,7 +1819,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1860,7 +1856,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3057,7 +3053,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Hoja1"/>
@@ -3074,7 +3070,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Hoja3"/>
@@ -3099,9 +3095,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3139,7 +3135,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3245,7 +3241,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3387,7 +3383,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3397,11 +3393,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B659CE74-9D03-463C-BBCD-4AE06B4E80D7}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="3"/>
     <col min="2" max="2" width="32.28515625" style="6" customWidth="1"/>
@@ -3416,111 +3412,111 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>59</v>
+        <v>14</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>63</v>
+        <v>19</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>67</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>64</v>
+        <v>20</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3551,19 +3547,19 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>41</v>
+      <c r="A1" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
@@ -3571,7 +3567,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B3" s="13">
         <v>2</v>
@@ -3579,7 +3575,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B4" s="13">
         <v>2</v>
@@ -3587,7 +3583,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B5" s="13">
         <v>2</v>
@@ -3595,7 +3591,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B6" s="13">
         <v>3</v>
@@ -3603,7 +3599,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="13">
         <v>3</v>
@@ -3611,7 +3607,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B8" s="13">
         <v>3</v>
@@ -3619,7 +3615,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B9" s="13">
         <v>3</v>
@@ -3627,7 +3623,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B10" s="13">
         <v>3</v>
@@ -3635,7 +3631,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B11" s="13">
         <v>3</v>
@@ -3643,7 +3639,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B12" s="13">
         <v>4</v>
@@ -3651,7 +3647,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B13" s="13">
         <v>4</v>
@@ -3659,7 +3655,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B14" s="13">
         <v>4</v>
@@ -3667,7 +3663,7 @@
     </row>
     <row r="15" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B15" s="13">
         <v>4</v>
@@ -3675,7 +3671,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B16" s="13">
         <v>5</v>
@@ -3683,7 +3679,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B17" s="13">
         <v>6</v>
@@ -3691,7 +3687,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B18" s="13">
         <v>6</v>
@@ -3699,7 +3695,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B19" s="13">
         <v>6</v>
@@ -3707,7 +3703,7 @@
     </row>
     <row r="20" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B20" s="13">
         <v>6</v>
@@ -3715,7 +3711,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B21" s="13">
         <v>7</v>
@@ -3723,7 +3719,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B22" s="13">
         <v>7</v>
@@ -3731,7 +3727,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B23" s="13">
         <v>9</v>
@@ -3739,7 +3735,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B24" s="13">
         <v>13</v>
@@ -3747,7 +3743,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:B24" xr:uid="{2908DEF8-4FEE-4F5A-A662-D9B0E05BB67B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B24">
+    <sortState ref="A2:B24">
       <sortCondition ref="B1:B24"/>
     </sortState>
   </autoFilter>
@@ -3765,7 +3761,7 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" style="9" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" style="9" customWidth="1"/>
@@ -3774,26 +3770,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
@@ -3801,31 +3797,31 @@
         <v>54</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="51" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3837,23 +3833,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4ED3610-FF9C-49B2-A57E-93ACCC398AB2}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="19"/>
       <c r="B1" s="19" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>44562</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="21">
         <v>746</v>
       </c>
     </row>
@@ -3861,7 +3857,7 @@
       <c r="A3" s="14">
         <v>44593</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="21">
         <v>333</v>
       </c>
     </row>
@@ -3869,7 +3865,7 @@
       <c r="A4" s="14">
         <v>44621</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="21">
         <v>300</v>
       </c>
     </row>
@@ -3877,7 +3873,7 @@
       <c r="A5" s="14">
         <v>44652</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="21">
         <v>1271</v>
       </c>
     </row>
@@ -3885,7 +3881,7 @@
       <c r="A6" s="14">
         <v>44682</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="21">
         <v>885</v>
       </c>
     </row>
@@ -3893,7 +3889,7 @@
       <c r="A7" s="14">
         <v>44713</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="21">
         <v>1133</v>
       </c>
     </row>
@@ -3901,7 +3897,7 @@
       <c r="A8" s="14">
         <v>44743</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="21">
         <v>5063</v>
       </c>
     </row>
@@ -3909,7 +3905,7 @@
       <c r="A9" s="14">
         <v>44774</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="21">
         <v>5971</v>
       </c>
     </row>
@@ -3917,7 +3913,7 @@
       <c r="A10" s="14">
         <v>44805</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="21">
         <v>5952</v>
       </c>
     </row>
@@ -3925,7 +3921,7 @@
       <c r="A11" s="14">
         <v>44835</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="21">
         <v>6650</v>
       </c>
     </row>
@@ -3933,7 +3929,7 @@
       <c r="A12" s="14">
         <v>44866</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="21">
         <v>1835</v>
       </c>
     </row>
@@ -3941,7 +3937,7 @@
       <c r="A13" s="14">
         <v>44896</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="21">
         <v>629</v>
       </c>
     </row>
@@ -3949,7 +3945,7 @@
       <c r="A14" s="14">
         <v>44927</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="21">
         <v>368</v>
       </c>
     </row>
@@ -3957,7 +3953,7 @@
       <c r="A15" s="14">
         <v>44958</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="21">
         <v>217</v>
       </c>
     </row>
@@ -3965,7 +3961,7 @@
       <c r="A16" s="14">
         <v>44986</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="21">
         <v>344</v>
       </c>
     </row>
@@ -3973,7 +3969,7 @@
       <c r="A17" s="14">
         <v>45017</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="21">
         <v>543</v>
       </c>
     </row>
@@ -3981,7 +3977,7 @@
       <c r="A18" s="14">
         <v>45047</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="21">
         <v>584</v>
       </c>
     </row>
@@ -3989,7 +3985,7 @@
       <c r="A19" s="14">
         <v>45078</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="21">
         <v>1765</v>
       </c>
     </row>
@@ -3997,7 +3993,7 @@
       <c r="A20" s="14">
         <v>45108</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="21">
         <v>3971</v>
       </c>
     </row>
@@ -4005,7 +4001,7 @@
       <c r="A21" s="14">
         <v>45139</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="21">
         <v>3547</v>
       </c>
     </row>
@@ -4013,7 +4009,7 @@
       <c r="A22" s="14">
         <v>45170</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="21">
         <v>4009</v>
       </c>
     </row>
@@ -4021,7 +4017,7 @@
       <c r="A23" s="14">
         <v>45200</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="21">
         <v>11774</v>
       </c>
     </row>
@@ -4029,7 +4025,7 @@
       <c r="A24" s="14">
         <v>45231</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="21">
         <v>7805</v>
       </c>
     </row>
@@ -4037,7 +4033,7 @@
       <c r="A25" s="14">
         <v>45261</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="21">
         <v>1252</v>
       </c>
     </row>
@@ -4045,7 +4041,7 @@
       <c r="A26" s="14">
         <v>45292</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="21">
         <v>490</v>
       </c>
     </row>
@@ -4053,7 +4049,7 @@
       <c r="A27" s="14">
         <v>45323</v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27" s="21">
         <v>148</v>
       </c>
     </row>
@@ -4061,7 +4057,7 @@
       <c r="A28" s="14">
         <v>45352</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="21">
         <v>432</v>
       </c>
     </row>
@@ -4069,7 +4065,7 @@
       <c r="A29" s="14">
         <v>45383</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29" s="21">
         <v>178</v>
       </c>
     </row>
@@ -4077,7 +4073,7 @@
       <c r="A30" s="14">
         <v>45413</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="21">
         <v>471</v>
       </c>
     </row>
@@ -4085,7 +4081,7 @@
       <c r="A31" s="14">
         <v>45444</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="21">
         <v>2114</v>
       </c>
     </row>
@@ -4093,7 +4089,7 @@
       <c r="A32" s="14">
         <v>45474</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32" s="21">
         <v>5611</v>
       </c>
     </row>
@@ -4101,7 +4097,7 @@
       <c r="A33" s="14">
         <v>45505</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33" s="21">
         <v>19611</v>
       </c>
     </row>
@@ -4109,7 +4105,7 @@
       <c r="A34" s="14">
         <v>45536</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="21">
         <v>18338</v>
       </c>
     </row>
@@ -4117,7 +4113,7 @@
       <c r="A35" s="14">
         <v>45566</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35" s="21">
         <v>10264</v>
       </c>
     </row>
@@ -4125,7 +4121,7 @@
       <c r="A36" s="14">
         <v>45597</v>
       </c>
-      <c r="B36" s="22">
+      <c r="B36" s="21">
         <v>1912</v>
       </c>
     </row>
@@ -4133,7 +4129,7 @@
       <c r="A37" s="14">
         <v>45627</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B37" s="21">
         <v>460</v>
       </c>
     </row>
@@ -4144,6 +4140,454 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{661C2CE9-20E7-40B9-986C-52AC3C48A5F5}">
+  <dimension ref="A1:C39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>44562</v>
+      </c>
+      <c r="B2" s="18">
+        <v>252</v>
+      </c>
+      <c r="C2" s="18">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>44593</v>
+      </c>
+      <c r="B3" s="18">
+        <v>470</v>
+      </c>
+      <c r="C3" s="18">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>44621</v>
+      </c>
+      <c r="B4" s="18">
+        <v>497</v>
+      </c>
+      <c r="C4" s="18">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>44652</v>
+      </c>
+      <c r="B5" s="18">
+        <v>747</v>
+      </c>
+      <c r="C5" s="18">
+        <v>4131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>44682</v>
+      </c>
+      <c r="B6" s="18">
+        <v>944</v>
+      </c>
+      <c r="C6" s="18">
+        <v>4411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>44713</v>
+      </c>
+      <c r="B7" s="18">
+        <v>909</v>
+      </c>
+      <c r="C7" s="18">
+        <v>4891</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>44743</v>
+      </c>
+      <c r="B8" s="18">
+        <v>1682</v>
+      </c>
+      <c r="C8" s="18">
+        <v>5896</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>44774</v>
+      </c>
+      <c r="B9" s="18">
+        <v>983</v>
+      </c>
+      <c r="C9" s="18">
+        <v>5046</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>44805</v>
+      </c>
+      <c r="B10" s="18">
+        <v>1154</v>
+      </c>
+      <c r="C10" s="18">
+        <v>5663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>44835</v>
+      </c>
+      <c r="B11" s="18">
+        <v>1165</v>
+      </c>
+      <c r="C11" s="18">
+        <v>6043</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>44866</v>
+      </c>
+      <c r="B12" s="18">
+        <v>680</v>
+      </c>
+      <c r="C12" s="18">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>44896</v>
+      </c>
+      <c r="B13" s="18">
+        <v>486</v>
+      </c>
+      <c r="C13" s="18">
+        <v>4089</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>44927</v>
+      </c>
+      <c r="B14" s="18">
+        <v>682</v>
+      </c>
+      <c r="C14" s="18">
+        <v>4269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>44958</v>
+      </c>
+      <c r="B15" s="18">
+        <v>790</v>
+      </c>
+      <c r="C15" s="18">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>44986</v>
+      </c>
+      <c r="B16" s="18">
+        <v>660</v>
+      </c>
+      <c r="C16" s="18">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>45017</v>
+      </c>
+      <c r="B17" s="18">
+        <v>1135</v>
+      </c>
+      <c r="C17" s="18">
+        <v>4613</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>45047</v>
+      </c>
+      <c r="B18" s="18">
+        <v>1297</v>
+      </c>
+      <c r="C18" s="18">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>45078</v>
+      </c>
+      <c r="B19" s="18">
+        <v>2142</v>
+      </c>
+      <c r="C19" s="18">
+        <v>5688</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>45108</v>
+      </c>
+      <c r="B20" s="18">
+        <v>3241</v>
+      </c>
+      <c r="C20" s="18">
+        <v>7463</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>45139</v>
+      </c>
+      <c r="B21" s="18">
+        <v>2707</v>
+      </c>
+      <c r="C21" s="18">
+        <v>7388</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <v>45170</v>
+      </c>
+      <c r="B22" s="18">
+        <v>3521</v>
+      </c>
+      <c r="C22" s="18">
+        <v>9260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
+        <v>45200</v>
+      </c>
+      <c r="B23" s="18">
+        <v>1954</v>
+      </c>
+      <c r="C23" s="18">
+        <v>9958</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
+        <v>45231</v>
+      </c>
+      <c r="B24" s="18">
+        <v>1616</v>
+      </c>
+      <c r="C24" s="18">
+        <v>9191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>45261</v>
+      </c>
+      <c r="B25" s="18">
+        <v>1589</v>
+      </c>
+      <c r="C25" s="18">
+        <v>8176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <v>45292</v>
+      </c>
+      <c r="B26" s="18">
+        <v>1080</v>
+      </c>
+      <c r="C26" s="18">
+        <v>8311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
+        <v>45323</v>
+      </c>
+      <c r="B27" s="18">
+        <v>855</v>
+      </c>
+      <c r="C27" s="18">
+        <v>7588</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
+        <v>45352</v>
+      </c>
+      <c r="B28" s="18">
+        <v>1552</v>
+      </c>
+      <c r="C28" s="18">
+        <v>10149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
+        <v>45383</v>
+      </c>
+      <c r="B29" s="18">
+        <v>2385</v>
+      </c>
+      <c r="C29" s="18">
+        <v>10546</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
+        <v>45413</v>
+      </c>
+      <c r="B30" s="18">
+        <v>4357</v>
+      </c>
+      <c r="C30" s="18">
+        <v>13309</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="17">
+        <v>45444</v>
+      </c>
+      <c r="B31" s="18">
+        <v>3809</v>
+      </c>
+      <c r="C31" s="18">
+        <v>13442</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="17">
+        <v>45474</v>
+      </c>
+      <c r="B32" s="18">
+        <v>3909</v>
+      </c>
+      <c r="C32" s="18">
+        <v>13828</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="17">
+        <v>45505</v>
+      </c>
+      <c r="B33" s="18">
+        <v>3318</v>
+      </c>
+      <c r="C33" s="18">
+        <v>14240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="17">
+        <v>45536</v>
+      </c>
+      <c r="B34" s="18">
+        <v>4323</v>
+      </c>
+      <c r="C34" s="18">
+        <v>13819</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="17">
+        <v>45566</v>
+      </c>
+      <c r="B35" s="18">
+        <v>1838</v>
+      </c>
+      <c r="C35" s="18">
+        <v>14519</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="17">
+        <v>45597</v>
+      </c>
+      <c r="B36" s="16">
+        <v>2718</v>
+      </c>
+      <c r="C36" s="16">
+        <v>12515</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="17">
+        <v>45627</v>
+      </c>
+      <c r="B37" s="16">
+        <v>2334</v>
+      </c>
+      <c r="C37" s="16">
+        <v>7536</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="17">
+        <v>45658</v>
+      </c>
+      <c r="B38" s="16">
+        <v>3307</v>
+      </c>
+      <c r="C38" s="16">
+        <v>9037</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="17">
+        <v>45689</v>
+      </c>
+      <c r="B39" s="16">
+        <v>2697</v>
+      </c>
+      <c r="C39" s="16">
+        <v>7364</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE93A016-4108-4F18-8642-56A316CCF431}">
   <dimension ref="A1:B37"/>
   <sheetViews>
@@ -4151,24 +4595,24 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>44562</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="22">
         <v>2832</v>
       </c>
     </row>
@@ -4176,7 +4620,7 @@
       <c r="A3" s="17">
         <v>44593</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="22">
         <v>2608</v>
       </c>
     </row>
@@ -4184,7 +4628,7 @@
       <c r="A4" s="17">
         <v>44621</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="22">
         <v>1365</v>
       </c>
     </row>
@@ -4192,7 +4636,7 @@
       <c r="A5" s="17">
         <v>44652</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="22">
         <v>3490</v>
       </c>
     </row>
@@ -4200,7 +4644,7 @@
       <c r="A6" s="17">
         <v>44682</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="22">
         <v>2348</v>
       </c>
     </row>
@@ -4208,7 +4652,7 @@
       <c r="A7" s="17">
         <v>44713</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="22">
         <v>2653</v>
       </c>
     </row>
@@ -4216,7 +4660,7 @@
       <c r="A8" s="17">
         <v>44743</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="22">
         <v>6839</v>
       </c>
     </row>
@@ -4224,7 +4668,7 @@
       <c r="A9" s="17">
         <v>44774</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="22">
         <v>4664</v>
       </c>
     </row>
@@ -4232,7 +4676,7 @@
       <c r="A10" s="17">
         <v>44805</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="22">
         <v>5694</v>
       </c>
     </row>
@@ -4240,7 +4684,7 @@
       <c r="A11" s="17">
         <v>44835</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="22">
         <v>4843</v>
       </c>
     </row>
@@ -4248,7 +4692,7 @@
       <c r="A12" s="17">
         <v>44866</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="22">
         <v>3971</v>
       </c>
     </row>
@@ -4256,7 +4700,7 @@
       <c r="A13" s="17">
         <v>44896</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="22">
         <v>1806</v>
       </c>
     </row>
@@ -4264,7 +4708,7 @@
       <c r="A14" s="17">
         <v>44927</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="22">
         <v>2455</v>
       </c>
     </row>
@@ -4272,7 +4716,7 @@
       <c r="A15" s="17">
         <v>44958</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="22">
         <v>2059</v>
       </c>
     </row>
@@ -4280,7 +4724,7 @@
       <c r="A16" s="17">
         <v>44986</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="22">
         <v>858</v>
       </c>
     </row>
@@ -4288,7 +4732,7 @@
       <c r="A17" s="17">
         <v>45017</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="22">
         <v>2105</v>
       </c>
     </row>
@@ -4296,7 +4740,7 @@
       <c r="A18" s="17">
         <v>45047</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="22">
         <v>1737</v>
       </c>
     </row>
@@ -4304,7 +4748,7 @@
       <c r="A19" s="17">
         <v>45078</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="22">
         <v>5636</v>
       </c>
     </row>
@@ -4312,7 +4756,7 @@
       <c r="A20" s="17">
         <v>45108</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="22">
         <v>7624</v>
       </c>
     </row>
@@ -4320,7 +4764,7 @@
       <c r="A21" s="17">
         <v>45139</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="22">
         <v>5098</v>
       </c>
     </row>
@@ -4328,7 +4772,7 @@
       <c r="A22" s="17">
         <v>45170</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="22">
         <v>6239</v>
       </c>
     </row>
@@ -4336,7 +4780,7 @@
       <c r="A23" s="17">
         <v>45200</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="22">
         <v>4894</v>
       </c>
     </row>
@@ -4344,7 +4788,7 @@
       <c r="A24" s="17">
         <v>45231</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="22">
         <v>3767</v>
       </c>
     </row>
@@ -4352,7 +4796,7 @@
       <c r="A25" s="17">
         <v>45261</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="22">
         <v>1867</v>
       </c>
     </row>
@@ -4360,7 +4804,7 @@
       <c r="A26" s="17">
         <v>45292</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="22">
         <v>2062</v>
       </c>
     </row>
@@ -4368,7 +4812,7 @@
       <c r="A27" s="17">
         <v>45323</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="22">
         <v>1901</v>
       </c>
     </row>
@@ -4376,7 +4820,7 @@
       <c r="A28" s="17">
         <v>45352</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="22">
         <v>2885</v>
       </c>
     </row>
@@ -4384,7 +4828,7 @@
       <c r="A29" s="17">
         <v>45383</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="22">
         <v>1528</v>
       </c>
     </row>
@@ -4392,7 +4836,7 @@
       <c r="A30" s="17">
         <v>45413</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="22">
         <v>3698</v>
       </c>
     </row>
@@ -4400,7 +4844,7 @@
       <c r="A31" s="17">
         <v>45444</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="22">
         <v>5405</v>
       </c>
     </row>
@@ -4408,7 +4852,7 @@
       <c r="A32" s="17">
         <v>45474</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="22">
         <v>6853</v>
       </c>
     </row>
@@ -4416,7 +4860,7 @@
       <c r="A33" s="17">
         <v>45505</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="22">
         <v>6536</v>
       </c>
     </row>
@@ -4424,7 +4868,7 @@
       <c r="A34" s="17">
         <v>45536</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="22">
         <v>3615</v>
       </c>
     </row>
@@ -4432,7 +4876,7 @@
       <c r="A35" s="17">
         <v>45566</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="22">
         <v>5026</v>
       </c>
     </row>
@@ -4440,7 +4884,7 @@
       <c r="A36" s="17">
         <v>45597</v>
       </c>
-      <c r="B36" s="23">
+      <c r="B36" s="22">
         <v>2946</v>
       </c>
     </row>
@@ -4448,439 +4892,13 @@
       <c r="A37" s="17">
         <v>45627</v>
       </c>
-      <c r="B37" s="23">
+      <c r="B37" s="22">
         <v>1991</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{661C2CE9-20E7-40B9-986C-52AC3C48A5F5}">
-  <dimension ref="A1:C37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="11.42578125" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
-        <v>44562</v>
-      </c>
-      <c r="B2" s="18">
-        <v>252</v>
-      </c>
-      <c r="C2" s="18">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
-        <v>44593</v>
-      </c>
-      <c r="B3" s="18">
-        <v>470</v>
-      </c>
-      <c r="C3" s="18">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
-        <v>44621</v>
-      </c>
-      <c r="B4" s="18">
-        <v>497</v>
-      </c>
-      <c r="C4" s="18">
-        <v>2660</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
-        <v>44652</v>
-      </c>
-      <c r="B5" s="18">
-        <v>747</v>
-      </c>
-      <c r="C5" s="18">
-        <v>4131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
-        <v>44682</v>
-      </c>
-      <c r="B6" s="18">
-        <v>944</v>
-      </c>
-      <c r="C6" s="18">
-        <v>4411</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
-        <v>44713</v>
-      </c>
-      <c r="B7" s="18">
-        <v>909</v>
-      </c>
-      <c r="C7" s="18">
-        <v>4891</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
-        <v>44743</v>
-      </c>
-      <c r="B8" s="18">
-        <v>1682</v>
-      </c>
-      <c r="C8" s="18">
-        <v>5896</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
-        <v>44774</v>
-      </c>
-      <c r="B9" s="18">
-        <v>983</v>
-      </c>
-      <c r="C9" s="18">
-        <v>5046</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
-        <v>44805</v>
-      </c>
-      <c r="B10" s="18">
-        <v>1154</v>
-      </c>
-      <c r="C10" s="18">
-        <v>5663</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
-        <v>44835</v>
-      </c>
-      <c r="B11" s="18">
-        <v>1165</v>
-      </c>
-      <c r="C11" s="18">
-        <v>6043</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
-        <v>44866</v>
-      </c>
-      <c r="B12" s="18">
-        <v>680</v>
-      </c>
-      <c r="C12" s="18">
-        <v>5342</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
-        <v>44896</v>
-      </c>
-      <c r="B13" s="18">
-        <v>486</v>
-      </c>
-      <c r="C13" s="18">
-        <v>4089</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
-        <v>44927</v>
-      </c>
-      <c r="B14" s="18">
-        <v>682</v>
-      </c>
-      <c r="C14" s="18">
-        <v>4269</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
-        <v>44958</v>
-      </c>
-      <c r="B15" s="18">
-        <v>790</v>
-      </c>
-      <c r="C15" s="18">
-        <v>2526</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
-        <v>44986</v>
-      </c>
-      <c r="B16" s="18">
-        <v>660</v>
-      </c>
-      <c r="C16" s="18">
-        <v>3376</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
-        <v>45017</v>
-      </c>
-      <c r="B17" s="18">
-        <v>1135</v>
-      </c>
-      <c r="C17" s="18">
-        <v>4613</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
-        <v>45047</v>
-      </c>
-      <c r="B18" s="18">
-        <v>1297</v>
-      </c>
-      <c r="C18" s="18">
-        <v>5001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
-        <v>45078</v>
-      </c>
-      <c r="B19" s="18">
-        <v>2142</v>
-      </c>
-      <c r="C19" s="18">
-        <v>5688</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
-        <v>45108</v>
-      </c>
-      <c r="B20" s="18">
-        <v>3241</v>
-      </c>
-      <c r="C20" s="18">
-        <v>7463</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
-        <v>45139</v>
-      </c>
-      <c r="B21" s="18">
-        <v>2707</v>
-      </c>
-      <c r="C21" s="18">
-        <v>7388</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
-        <v>45170</v>
-      </c>
-      <c r="B22" s="18">
-        <v>3521</v>
-      </c>
-      <c r="C22" s="18">
-        <v>9260</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
-        <v>45200</v>
-      </c>
-      <c r="B23" s="18">
-        <v>1954</v>
-      </c>
-      <c r="C23" s="18">
-        <v>9958</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
-        <v>45231</v>
-      </c>
-      <c r="B24" s="18">
-        <v>1616</v>
-      </c>
-      <c r="C24" s="18">
-        <v>9191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
-        <v>45261</v>
-      </c>
-      <c r="B25" s="18">
-        <v>1589</v>
-      </c>
-      <c r="C25" s="18">
-        <v>8176</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
-        <v>45292</v>
-      </c>
-      <c r="B26" s="18">
-        <v>1080</v>
-      </c>
-      <c r="C26" s="18">
-        <v>8311</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
-        <v>45323</v>
-      </c>
-      <c r="B27" s="18">
-        <v>855</v>
-      </c>
-      <c r="C27" s="18">
-        <v>7588</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
-        <v>45352</v>
-      </c>
-      <c r="B28" s="18">
-        <v>1552</v>
-      </c>
-      <c r="C28" s="18">
-        <v>10149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
-        <v>45383</v>
-      </c>
-      <c r="B29" s="18">
-        <v>2385</v>
-      </c>
-      <c r="C29" s="18">
-        <v>10546</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
-        <v>45413</v>
-      </c>
-      <c r="B30" s="18">
-        <v>4357</v>
-      </c>
-      <c r="C30" s="18">
-        <v>13309</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
-        <v>45444</v>
-      </c>
-      <c r="B31" s="18">
-        <v>3809</v>
-      </c>
-      <c r="C31" s="18">
-        <v>13442</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
-        <v>45474</v>
-      </c>
-      <c r="B32" s="18">
-        <v>3909</v>
-      </c>
-      <c r="C32" s="18">
-        <v>13828</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="17">
-        <v>45505</v>
-      </c>
-      <c r="B33" s="18">
-        <v>3318</v>
-      </c>
-      <c r="C33" s="18">
-        <v>14240</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
-        <v>45536</v>
-      </c>
-      <c r="B34" s="18">
-        <v>4323</v>
-      </c>
-      <c r="C34" s="18">
-        <v>13819</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="17">
-        <v>45566</v>
-      </c>
-      <c r="B35" s="18">
-        <v>1838</v>
-      </c>
-      <c r="C35" s="18">
-        <v>14519</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="17">
-        <v>45597</v>
-      </c>
-      <c r="B36" s="16">
-        <v>2718</v>
-      </c>
-      <c r="C36" s="16">
-        <v>12515</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="17">
-        <v>45627</v>
-      </c>
-      <c r="B37" s="16">
-        <v>2334</v>
-      </c>
-      <c r="C37" s="16">
-        <v>7536</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4888,22 +4906,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98FD8CAF-C762-4AC2-BAFC-301CCD7C5D03}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="13"/>
+      <c r="A1" s="27" t="s">
+        <v>63</v>
+      </c>
       <c r="B1" s="13" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -4919,9 +4937,7 @@
       <c r="D2" s="13">
         <v>52014</v>
       </c>
-      <c r="G2" s="13">
-        <v>4323</v>
-      </c>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
@@ -4936,9 +4952,7 @@
       <c r="D3" s="13">
         <v>38643</v>
       </c>
-      <c r="G3" s="13">
-        <v>1255</v>
-      </c>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
@@ -4953,9 +4967,7 @@
       <c r="D4" s="13">
         <v>57932</v>
       </c>
-      <c r="G4" s="13">
-        <v>462</v>
-      </c>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
@@ -4970,9 +4982,7 @@
       <c r="D5" s="13">
         <v>78828</v>
       </c>
-      <c r="G5" s="13">
-        <v>442</v>
-      </c>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
@@ -4987,9 +4997,7 @@
       <c r="D6" s="13">
         <v>97064</v>
       </c>
-      <c r="G6" s="13">
-        <v>337</v>
-      </c>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
@@ -5004,9 +5012,7 @@
       <c r="D7" s="13">
         <v>101796</v>
       </c>
-      <c r="G7" s="13">
-        <v>244</v>
-      </c>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
@@ -5021,9 +5027,7 @@
       <c r="D8" s="13">
         <v>121392</v>
       </c>
-      <c r="G8" s="13">
-        <v>234</v>
-      </c>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
@@ -5038,9 +5042,7 @@
       <c r="D9" s="13">
         <v>131830</v>
       </c>
-      <c r="G9" s="13">
-        <v>198</v>
-      </c>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
@@ -5055,10 +5057,7 @@
       <c r="D10" s="13">
         <v>112436</v>
       </c>
-      <c r="G10" s="20">
-        <f>+G3/$G$2</f>
-        <v>0.29030765671987047</v>
-      </c>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="17">
@@ -5073,10 +5072,7 @@
       <c r="D11" s="13">
         <v>115620</v>
       </c>
-      <c r="G11" s="20">
-        <f t="shared" ref="G11:G18" si="0">+G4/$G$2</f>
-        <v>0.10687022900763359</v>
-      </c>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
@@ -5091,10 +5087,7 @@
       <c r="D12" s="13">
         <v>92619</v>
       </c>
-      <c r="G12" s="20">
-        <f t="shared" si="0"/>
-        <v>0.10224381216747629</v>
-      </c>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="17">
@@ -5109,10 +5102,7 @@
       <c r="D13" s="13">
         <v>38410</v>
       </c>
-      <c r="G13" s="20">
-        <f t="shared" si="0"/>
-        <v>7.795512375665048E-2</v>
-      </c>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
@@ -5127,10 +5117,7 @@
       <c r="D14" s="13">
         <v>20074</v>
       </c>
-      <c r="G14" s="20">
-        <f t="shared" si="0"/>
-        <v>5.6442285449919034E-2</v>
-      </c>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="17">
@@ -5145,10 +5132,7 @@
       <c r="D15" s="13">
         <v>12537</v>
       </c>
-      <c r="G15" s="20">
-        <f t="shared" si="0"/>
-        <v>5.4129077029840392E-2</v>
-      </c>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="17">
@@ -5163,10 +5147,7 @@
       <c r="D16" s="13">
         <v>39718</v>
       </c>
-      <c r="G16" s="20">
-        <f t="shared" si="0"/>
-        <v>4.5801526717557252E-2</v>
-      </c>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="17">
@@ -5181,10 +5162,7 @@
       <c r="D17" s="13">
         <v>72383</v>
       </c>
-      <c r="G17" s="20">
-        <f t="shared" si="0"/>
-        <v>6.7154211593770636E-5</v>
-      </c>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
@@ -5199,10 +5177,7 @@
       <c r="D18" s="13">
         <v>85404</v>
       </c>
-      <c r="G18" s="20">
-        <f t="shared" si="0"/>
-        <v>2.4721311359619151E-5</v>
-      </c>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="17">
@@ -5474,4 +5449,1088 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67E8CA6-C35D-4D3E-A036-825B06331D33}">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="26">
+        <v>44562</v>
+      </c>
+      <c r="B2" s="24">
+        <v>1402</v>
+      </c>
+      <c r="C2" s="24">
+        <v>34</v>
+      </c>
+      <c r="D2" s="24">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="26">
+        <v>44593</v>
+      </c>
+      <c r="B3" s="24">
+        <v>859</v>
+      </c>
+      <c r="C3" s="24">
+        <v>30</v>
+      </c>
+      <c r="D3" s="24">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="26">
+        <v>44621</v>
+      </c>
+      <c r="B4" s="24">
+        <v>482</v>
+      </c>
+      <c r="C4" s="24">
+        <v>27</v>
+      </c>
+      <c r="D4" s="24">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="26">
+        <v>44652</v>
+      </c>
+      <c r="B5" s="24">
+        <v>116</v>
+      </c>
+      <c r="C5" s="24">
+        <v>33</v>
+      </c>
+      <c r="D5" s="24">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="26">
+        <v>44682</v>
+      </c>
+      <c r="B6" s="24">
+        <v>697</v>
+      </c>
+      <c r="C6" s="24">
+        <v>41</v>
+      </c>
+      <c r="D6" s="24">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="26">
+        <v>44713</v>
+      </c>
+      <c r="B7" s="24">
+        <v>590</v>
+      </c>
+      <c r="C7" s="24">
+        <v>26</v>
+      </c>
+      <c r="D7" s="24">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="26">
+        <v>44743</v>
+      </c>
+      <c r="B8" s="24">
+        <v>1495</v>
+      </c>
+      <c r="C8" s="24">
+        <v>55</v>
+      </c>
+      <c r="D8" s="24">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="26">
+        <v>44774</v>
+      </c>
+      <c r="B9" s="24">
+        <v>1107</v>
+      </c>
+      <c r="C9" s="24">
+        <v>68</v>
+      </c>
+      <c r="D9" s="24">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="26">
+        <v>44805</v>
+      </c>
+      <c r="B10" s="24">
+        <v>1251</v>
+      </c>
+      <c r="C10" s="24">
+        <v>31</v>
+      </c>
+      <c r="D10" s="24">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="26">
+        <v>44835</v>
+      </c>
+      <c r="B11" s="24">
+        <v>1220</v>
+      </c>
+      <c r="C11" s="24">
+        <v>42</v>
+      </c>
+      <c r="D11" s="24">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="26">
+        <v>44866</v>
+      </c>
+      <c r="B12" s="24">
+        <v>862</v>
+      </c>
+      <c r="C12" s="24">
+        <v>39</v>
+      </c>
+      <c r="D12" s="24">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="26">
+        <v>44896</v>
+      </c>
+      <c r="B13" s="24">
+        <v>687</v>
+      </c>
+      <c r="C13" s="24">
+        <v>19</v>
+      </c>
+      <c r="D13" s="24">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="26">
+        <v>44927</v>
+      </c>
+      <c r="B14" s="24">
+        <v>973</v>
+      </c>
+      <c r="C14" s="24">
+        <v>46</v>
+      </c>
+      <c r="D14" s="24">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="26">
+        <v>44958</v>
+      </c>
+      <c r="B15" s="24">
+        <v>732</v>
+      </c>
+      <c r="C15" s="24">
+        <v>20</v>
+      </c>
+      <c r="D15" s="24">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="26">
+        <v>44986</v>
+      </c>
+      <c r="B16" s="24">
+        <v>106</v>
+      </c>
+      <c r="C16" s="24">
+        <v>2</v>
+      </c>
+      <c r="D16" s="24">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="26">
+        <v>45017</v>
+      </c>
+      <c r="B17" s="24">
+        <v>0</v>
+      </c>
+      <c r="C17" s="24">
+        <v>0</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="26">
+        <v>45047</v>
+      </c>
+      <c r="B18" s="24">
+        <v>0</v>
+      </c>
+      <c r="C18" s="24">
+        <v>0</v>
+      </c>
+      <c r="D18" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="26">
+        <v>45078</v>
+      </c>
+      <c r="B19" s="24">
+        <v>0</v>
+      </c>
+      <c r="C19" s="24">
+        <v>0</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="26">
+        <v>45108</v>
+      </c>
+      <c r="B20" s="24">
+        <v>344</v>
+      </c>
+      <c r="C20" s="24">
+        <v>1</v>
+      </c>
+      <c r="D20" s="24">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="26">
+        <v>45139</v>
+      </c>
+      <c r="B21" s="24">
+        <v>962</v>
+      </c>
+      <c r="C21" s="24">
+        <v>44</v>
+      </c>
+      <c r="D21" s="24">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="26">
+        <v>45170</v>
+      </c>
+      <c r="B22" s="24">
+        <v>2055</v>
+      </c>
+      <c r="C22" s="24">
+        <v>13</v>
+      </c>
+      <c r="D22" s="24">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="26">
+        <v>45200</v>
+      </c>
+      <c r="B23" s="24">
+        <v>912</v>
+      </c>
+      <c r="C23" s="24">
+        <v>19</v>
+      </c>
+      <c r="D23" s="24">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="26">
+        <v>45231</v>
+      </c>
+      <c r="B24" s="24">
+        <v>893</v>
+      </c>
+      <c r="C24" s="24">
+        <v>45</v>
+      </c>
+      <c r="D24" s="24">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="26">
+        <v>45261</v>
+      </c>
+      <c r="B25" s="24">
+        <v>684</v>
+      </c>
+      <c r="C25" s="24">
+        <v>35</v>
+      </c>
+      <c r="D25" s="24">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="26">
+        <v>45292</v>
+      </c>
+      <c r="B26" s="24">
+        <v>931</v>
+      </c>
+      <c r="C26" s="24">
+        <v>48</v>
+      </c>
+      <c r="D26" s="24">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="26">
+        <v>45323</v>
+      </c>
+      <c r="B27" s="24">
+        <v>642</v>
+      </c>
+      <c r="C27" s="24">
+        <v>76</v>
+      </c>
+      <c r="D27" s="24">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="26">
+        <v>45352</v>
+      </c>
+      <c r="B28" s="24">
+        <v>691</v>
+      </c>
+      <c r="C28" s="24">
+        <v>38</v>
+      </c>
+      <c r="D28" s="24">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="26">
+        <v>45383</v>
+      </c>
+      <c r="B29" s="24">
+        <v>538</v>
+      </c>
+      <c r="C29" s="24">
+        <v>28</v>
+      </c>
+      <c r="D29" s="24">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="26">
+        <v>45413</v>
+      </c>
+      <c r="B30" s="24">
+        <v>654</v>
+      </c>
+      <c r="C30" s="24">
+        <v>51</v>
+      </c>
+      <c r="D30" s="24">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="26">
+        <v>45444</v>
+      </c>
+      <c r="B31" s="24">
+        <v>878</v>
+      </c>
+      <c r="C31" s="24">
+        <v>37</v>
+      </c>
+      <c r="D31" s="24">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="26">
+        <v>45474</v>
+      </c>
+      <c r="B32" s="24">
+        <v>1449</v>
+      </c>
+      <c r="C32" s="24">
+        <v>41</v>
+      </c>
+      <c r="D32" s="24">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="26">
+        <v>45505</v>
+      </c>
+      <c r="B33" s="24">
+        <v>1120</v>
+      </c>
+      <c r="C33" s="24">
+        <v>52</v>
+      </c>
+      <c r="D33" s="24">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="26">
+        <v>45536</v>
+      </c>
+      <c r="B34" s="24">
+        <v>1803</v>
+      </c>
+      <c r="C34" s="24">
+        <v>49</v>
+      </c>
+      <c r="D34" s="24">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="26">
+        <v>45566</v>
+      </c>
+      <c r="B35" s="24">
+        <v>694</v>
+      </c>
+      <c r="C35" s="24">
+        <v>61</v>
+      </c>
+      <c r="D35" s="24">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="26">
+        <v>45597</v>
+      </c>
+      <c r="B36" s="24">
+        <v>1592</v>
+      </c>
+      <c r="C36" s="24">
+        <v>52</v>
+      </c>
+      <c r="D36" s="24">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="26">
+        <v>45627</v>
+      </c>
+      <c r="B37" s="24">
+        <v>496</v>
+      </c>
+      <c r="C37" s="24">
+        <v>34</v>
+      </c>
+      <c r="D37" s="24">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580FC2ED-00F9-4EEF-B1F0-4E24D53416F1}">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="26">
+        <v>44562</v>
+      </c>
+      <c r="B2" s="24">
+        <v>3610</v>
+      </c>
+      <c r="C2" s="24">
+        <v>44</v>
+      </c>
+      <c r="D2" s="24">
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="26">
+        <v>44593</v>
+      </c>
+      <c r="B3" s="24">
+        <v>3606</v>
+      </c>
+      <c r="C3" s="24">
+        <v>39</v>
+      </c>
+      <c r="D3" s="24">
+        <v>3645</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="26">
+        <v>44621</v>
+      </c>
+      <c r="B4" s="24">
+        <v>2015</v>
+      </c>
+      <c r="C4" s="24">
+        <v>90</v>
+      </c>
+      <c r="D4" s="24">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="26">
+        <v>44652</v>
+      </c>
+      <c r="B5" s="24">
+        <v>2074</v>
+      </c>
+      <c r="C5" s="24">
+        <v>116</v>
+      </c>
+      <c r="D5" s="24">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="26">
+        <v>44682</v>
+      </c>
+      <c r="B6" s="24">
+        <v>1939</v>
+      </c>
+      <c r="C6" s="24">
+        <v>125</v>
+      </c>
+      <c r="D6" s="24">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="26">
+        <v>44713</v>
+      </c>
+      <c r="B7" s="24">
+        <v>1634</v>
+      </c>
+      <c r="C7" s="24">
+        <v>119</v>
+      </c>
+      <c r="D7" s="24">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="26">
+        <v>44743</v>
+      </c>
+      <c r="B8" s="24">
+        <v>3819</v>
+      </c>
+      <c r="C8" s="24">
+        <v>243</v>
+      </c>
+      <c r="D8" s="24">
+        <v>4062</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="26">
+        <v>44774</v>
+      </c>
+      <c r="B9" s="24">
+        <v>5153</v>
+      </c>
+      <c r="C9" s="24">
+        <v>162</v>
+      </c>
+      <c r="D9" s="24">
+        <v>5315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="26">
+        <v>44805</v>
+      </c>
+      <c r="B10" s="24">
+        <v>3786</v>
+      </c>
+      <c r="C10" s="24">
+        <v>127</v>
+      </c>
+      <c r="D10" s="24">
+        <v>3913</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="26">
+        <v>44835</v>
+      </c>
+      <c r="B11" s="24">
+        <v>3292</v>
+      </c>
+      <c r="C11" s="24">
+        <v>201</v>
+      </c>
+      <c r="D11" s="24">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="26">
+        <v>44866</v>
+      </c>
+      <c r="B12" s="24">
+        <v>2445</v>
+      </c>
+      <c r="C12" s="24">
+        <v>190</v>
+      </c>
+      <c r="D12" s="24">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="26">
+        <v>44896</v>
+      </c>
+      <c r="B13" s="24">
+        <v>1570</v>
+      </c>
+      <c r="C13" s="24">
+        <v>88</v>
+      </c>
+      <c r="D13" s="24">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="26">
+        <v>44927</v>
+      </c>
+      <c r="B14" s="24">
+        <v>2889</v>
+      </c>
+      <c r="C14" s="24">
+        <v>127</v>
+      </c>
+      <c r="D14" s="24">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="26">
+        <v>44958</v>
+      </c>
+      <c r="B15" s="24">
+        <v>3099</v>
+      </c>
+      <c r="C15" s="24">
+        <v>93</v>
+      </c>
+      <c r="D15" s="24">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="26">
+        <v>44986</v>
+      </c>
+      <c r="B16" s="24">
+        <v>964</v>
+      </c>
+      <c r="C16" s="24">
+        <v>39</v>
+      </c>
+      <c r="D16" s="24">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="26">
+        <v>45017</v>
+      </c>
+      <c r="B17" s="24">
+        <v>727</v>
+      </c>
+      <c r="C17" s="24">
+        <v>62</v>
+      </c>
+      <c r="D17" s="24">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="26">
+        <v>45047</v>
+      </c>
+      <c r="B18" s="24">
+        <v>1111</v>
+      </c>
+      <c r="C18" s="24">
+        <v>101</v>
+      </c>
+      <c r="D18" s="24">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="26">
+        <v>45078</v>
+      </c>
+      <c r="B19" s="24">
+        <v>1023</v>
+      </c>
+      <c r="C19" s="24">
+        <v>56</v>
+      </c>
+      <c r="D19" s="24">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="26">
+        <v>45108</v>
+      </c>
+      <c r="B20" s="24">
+        <v>3084</v>
+      </c>
+      <c r="C20" s="24">
+        <v>141</v>
+      </c>
+      <c r="D20" s="24">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="26">
+        <v>45139</v>
+      </c>
+      <c r="B21" s="24">
+        <v>3130</v>
+      </c>
+      <c r="C21" s="24">
+        <v>89</v>
+      </c>
+      <c r="D21" s="24">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="26">
+        <v>45170</v>
+      </c>
+      <c r="B22" s="24">
+        <v>3309</v>
+      </c>
+      <c r="C22" s="24">
+        <v>101</v>
+      </c>
+      <c r="D22" s="24">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="26">
+        <v>45200</v>
+      </c>
+      <c r="B23" s="24">
+        <v>2648</v>
+      </c>
+      <c r="C23" s="24">
+        <v>92</v>
+      </c>
+      <c r="D23" s="24">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="26">
+        <v>45231</v>
+      </c>
+      <c r="B24" s="24">
+        <v>2531</v>
+      </c>
+      <c r="C24" s="24">
+        <v>179</v>
+      </c>
+      <c r="D24" s="24">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="26">
+        <v>45261</v>
+      </c>
+      <c r="B25" s="24">
+        <v>1894</v>
+      </c>
+      <c r="C25" s="24">
+        <v>94</v>
+      </c>
+      <c r="D25" s="24">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="26">
+        <v>45292</v>
+      </c>
+      <c r="B26" s="24">
+        <v>3481</v>
+      </c>
+      <c r="C26" s="24">
+        <v>150</v>
+      </c>
+      <c r="D26" s="24">
+        <v>3631</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="26">
+        <v>45323</v>
+      </c>
+      <c r="B27" s="24">
+        <v>2874</v>
+      </c>
+      <c r="C27" s="24">
+        <v>144</v>
+      </c>
+      <c r="D27" s="24">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="26">
+        <v>45352</v>
+      </c>
+      <c r="B28" s="24">
+        <v>1815</v>
+      </c>
+      <c r="C28" s="24">
+        <v>112</v>
+      </c>
+      <c r="D28" s="24">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="26">
+        <v>45383</v>
+      </c>
+      <c r="B29" s="24">
+        <v>1216</v>
+      </c>
+      <c r="C29" s="24">
+        <v>161</v>
+      </c>
+      <c r="D29" s="24">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="26">
+        <v>45413</v>
+      </c>
+      <c r="B30" s="24">
+        <v>1464</v>
+      </c>
+      <c r="C30" s="24">
+        <v>155</v>
+      </c>
+      <c r="D30" s="24">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="26">
+        <v>45444</v>
+      </c>
+      <c r="B31" s="24">
+        <v>2521</v>
+      </c>
+      <c r="C31" s="24">
+        <v>100</v>
+      </c>
+      <c r="D31" s="24">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="26">
+        <v>45474</v>
+      </c>
+      <c r="B32" s="24">
+        <v>5007</v>
+      </c>
+      <c r="C32" s="24">
+        <v>130</v>
+      </c>
+      <c r="D32" s="24">
+        <v>5137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="26">
+        <v>45505</v>
+      </c>
+      <c r="B33" s="24">
+        <v>3023</v>
+      </c>
+      <c r="C33" s="24">
+        <v>206</v>
+      </c>
+      <c r="D33" s="24">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="26">
+        <v>45536</v>
+      </c>
+      <c r="B34" s="24">
+        <v>4488</v>
+      </c>
+      <c r="C34" s="24">
+        <v>256</v>
+      </c>
+      <c r="D34" s="24">
+        <v>4744</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="26">
+        <v>45566</v>
+      </c>
+      <c r="B35" s="24">
+        <v>2668</v>
+      </c>
+      <c r="C35" s="24">
+        <v>186</v>
+      </c>
+      <c r="D35" s="24">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="26">
+        <v>45597</v>
+      </c>
+      <c r="B36" s="24">
+        <v>2337</v>
+      </c>
+      <c r="C36" s="24">
+        <v>177</v>
+      </c>
+      <c r="D36" s="24">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="26">
+        <v>45627</v>
+      </c>
+      <c r="B37" s="24">
+        <v>1521</v>
+      </c>
+      <c r="C37" s="24">
+        <v>116</v>
+      </c>
+      <c r="D37" s="24">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="26">
+        <v>45658</v>
+      </c>
+      <c r="B38" s="24">
+        <v>3858</v>
+      </c>
+      <c r="C38" s="24">
+        <v>112</v>
+      </c>
+      <c r="D38" s="24">
+        <v>3970</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>